--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH2024/Báo cáo BH-SX tháng 04-24.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH2024/Báo cáo BH-SX tháng 04-24.xlsx
@@ -591,6 +591,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,21 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="34">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>50</v>
@@ -1041,7 +1041,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="34">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>49</v>
@@ -1053,14 +1053,14 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="34">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>52</v>
@@ -1070,10 +1070,10 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="34">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>38</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>51</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>51</v>
@@ -1130,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="29">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>51</v>
@@ -1149,7 +1149,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="2">
-        <v>244</v>
+        <v>647</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>51</v>
@@ -1174,19 +1174,19 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="22"/>
@@ -1195,8 +1195,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="30" t="s">
         <v>41</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="F13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="16"/>
@@ -1412,10 +1412,10 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="15">
         <f>SUM(C14:C20)</f>
         <v>3760</v>
@@ -1458,14 +1458,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
